--- a/Dự Án/BÁO GIÁ/BÁO GIÁ DỊCH VỤ LẬP TRÌNH VR360.xlsx
+++ b/Dự Án/BÁO GIÁ/BÁO GIÁ DỊCH VỤ LẬP TRÌNH VR360.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/Documents/Hành chính Jet Art/JETART/Dự Án/BÁO GIÁ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B82EEE-4654-BB48-9F89-C17E0FBC2B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99C6D32-48CE-6C4E-9BA1-5FA25F51C2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="720" windowWidth="23980" windowHeight="13500" xr2:uid="{8AD6EEE6-D7C2-9343-8332-36AC3F8B4286}"/>
+    <workbookView xWindow="1620" yWindow="640" windowWidth="23980" windowHeight="13500" xr2:uid="{8AD6EEE6-D7C2-9343-8332-36AC3F8B4286}"/>
   </bookViews>
   <sheets>
     <sheet name="BÁO GIÁ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Địa chỉ:</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t xml:space="preserve">          JET ART DESIGN</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>HỖ TRỢ CODE</t>
+  </si>
+  <si>
+    <t>Hỗ trợ bên kỹ thuật (lập trình phát sinh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Hỗ trợ </t>
   </si>
 </sst>
 </file>
@@ -732,7 +744,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -894,6 +906,7 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,7 +970,9 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1330,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54ED6AA-6ED4-6A40-A1A1-694E2E546479}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1395,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="62" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="5"/>
@@ -1394,7 +1409,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="62" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="1"/>
@@ -1543,16 +1558,16 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="49" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1616,10 +1631,10 @@
       <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="73" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="52" t="s">
@@ -1634,15 +1649,15 @@
       <c r="F21" s="38">
         <v>1</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="76">
         <f>SUM(D21:D27)</f>
         <v>2450000</v>
       </c>
-      <c r="H21" s="78"/>
+      <c r="H21" s="79"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="57" t="s">
         <v>36</v>
       </c>
@@ -1655,12 +1670,12 @@
       <c r="F22" s="46">
         <v>1</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="79"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
-      <c r="B23" s="73"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="57" t="s">
         <v>37</v>
       </c>
@@ -1673,12 +1688,12 @@
       <c r="F23" s="46">
         <v>1</v>
       </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="79"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="57" t="s">
         <v>38</v>
       </c>
@@ -1691,12 +1706,12 @@
       <c r="F24" s="46">
         <v>1</v>
       </c>
-      <c r="G24" s="76"/>
-      <c r="H24" s="79"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="57" t="s">
         <v>39</v>
       </c>
@@ -1709,12 +1724,12 @@
       <c r="F25" s="46">
         <v>1</v>
       </c>
-      <c r="G25" s="76"/>
-      <c r="H25" s="79"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="80"/>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="57" t="s">
         <v>40</v>
       </c>
@@ -1727,12 +1742,12 @@
       <c r="F26" s="46">
         <v>1</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="79"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="80"/>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="58" t="s">
         <v>41</v>
       </c>
@@ -1745,14 +1760,14 @@
       <c r="F27" s="47">
         <v>1</v>
       </c>
-      <c r="G27" s="77"/>
-      <c r="H27" s="80"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="73" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="52" t="s">
@@ -1767,15 +1782,15 @@
       <c r="F28" s="38">
         <v>1</v>
       </c>
-      <c r="G28" s="75">
+      <c r="G28" s="76">
         <f>SUM(D28:D29)</f>
         <v>700000</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="82"/>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="53" t="s">
         <v>43</v>
       </c>
@@ -1788,8 +1803,8 @@
       <c r="F29" s="47">
         <v>1</v>
       </c>
-      <c r="G29" s="77"/>
-      <c r="H29" s="82"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="83"/>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
@@ -1816,59 +1831,72 @@
       </c>
       <c r="H30" s="33"/>
     </row>
-    <row r="31" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
+    <row r="31" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="54">
+        <v>500000</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="56">
+        <v>1</v>
+      </c>
+      <c r="G31" s="32">
+        <f>D31</f>
+        <v>500000</v>
+      </c>
+      <c r="H31" s="84"/>
+    </row>
+    <row r="32" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="29">
-        <f>SUM(G20:G30)</f>
-        <v>6000000</v>
-      </c>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="29">
+        <f>SUM(G20:G31)</f>
+        <v>6500000</v>
+      </c>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B35" s="68" t="s">
         <v>24</v>
-      </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-    </row>
-    <row r="35" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="68" t="s">
-        <v>25</v>
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
@@ -1877,61 +1905,73 @@
       <c r="G35" s="68"/>
       <c r="H35" s="68"/>
     </row>
-    <row r="36" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+    <row r="36" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
     </row>
     <row r="37" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="27" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="28" t="s">
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="43" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="44" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="A28:A29"/>
